--- a/Menu Plans.xlsx
+++ b/Menu Plans.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="-15" windowWidth="7710" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="7665" yWindow="-15" windowWidth="7710" windowHeight="8235" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Menus" sheetId="3" r:id="rId1"/>
     <sheet name="Menu Tree " sheetId="4" r:id="rId2"/>
+    <sheet name="Easy" sheetId="5" r:id="rId3"/>
+    <sheet name="Easy Tree" sheetId="7" r:id="rId4"/>
+    <sheet name="Advanced" sheetId="9" r:id="rId5"/>
+    <sheet name="Advanced Tree" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -119,8 +122,298 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>luc</author>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Only if not printing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Only if not printing</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Only if not printing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Only if printing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Only if pause</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Only if printing or pause</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Handle light, Inact, Stepper</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>luc</author>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Only if not printing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Only if not printing</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Only if not printing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Only if printing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Only if pause</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Only if printing or pause</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>New Settings</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>New Setting</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>New Setting</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q22" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="178">
   <si>
     <t>Main Menu</t>
   </si>
@@ -594,12 +887,154 @@
   <si>
     <t>DaVinci LCD Menu Tree Mode</t>
   </si>
+  <si>
+    <t>Layer: 0</t>
+  </si>
+  <si>
+    <t>Maintenance-&gt;</t>
+  </si>
+  <si>
+    <t>Settings-&gt;</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Load/Unload-&gt;</t>
+  </si>
+  <si>
+    <t>Auto Level Bed</t>
+  </si>
+  <si>
+    <t>Clean Dripbox</t>
+  </si>
+  <si>
+    <t>Disable Steppers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 mm</t>
+  </si>
+  <si>
+    <t>100 mm</t>
+  </si>
+  <si>
+    <t>Load/Unload</t>
+  </si>
+  <si>
+    <t>Load Left</t>
+  </si>
+  <si>
+    <t>Load Right</t>
+  </si>
+  <si>
+    <t>Unload Left</t>
+  </si>
+  <si>
+    <t>Unload Right</t>
+  </si>
+  <si>
+    <t>Mode: Easy</t>
+  </si>
+  <si>
+    <t>X :  0.00mm</t>
+  </si>
+  <si>
+    <t>Y :  0.00mm</t>
+  </si>
+  <si>
+    <t>Z :  0.00mm</t>
+  </si>
+  <si>
+    <t>E Position</t>
+  </si>
+  <si>
+    <t>E :  0.00mm</t>
+  </si>
+  <si>
+    <t>Bed-&gt;</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
+    <t>Bed :220'C</t>
+  </si>
+  <si>
+    <t>Bed : Off</t>
+  </si>
+  <si>
+    <t>Fil. Sensors:On</t>
+  </si>
+  <si>
+    <t>Manual Level Bed</t>
+  </si>
+  <si>
+    <t>Printing w/Light: On</t>
+  </si>
+  <si>
+    <t>Powersave-&gt;</t>
+  </si>
+  <si>
+    <t>Powersave</t>
+  </si>
+  <si>
+    <t>Light Off After-&gt;</t>
+  </si>
+  <si>
+    <t>Light Off After</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>100/110</t>
+    </r>
+  </si>
+  <si>
+    <t>Max Temp: 240</t>
+  </si>
+  <si>
+    <t>Xmax:199</t>
+  </si>
+  <si>
+    <t>Ymax:215</t>
+  </si>
+  <si>
+    <t>Zmax:199</t>
+  </si>
+  <si>
+    <t>Screen - Page 4</t>
+  </si>
+  <si>
+    <t>Buffer : 2</t>
+  </si>
+  <si>
+    <t>Z:0.000 L: 0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -652,6 +1087,19 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -702,11 +1150,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,13 +1246,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>173182</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>148057</xdr:rowOff>
+          <xdr:rowOff>148058</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>295909</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>152142</xdr:rowOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>81369</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -813,7 +1261,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$A$1:$A$6" spid="_x0000_s4447"/>
+                  <a14:cameraTool cellRange="Menus!$A$1:$A$6" spid="_x0000_s4700"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -827,134 +1275,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="173182" y="1013966"/>
-              <a:ext cx="3240000" cy="1874449"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
-                <a:srgbClr val="333333">
-                  <a:alpha val="65000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>295909</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>150100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>86590</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>121591</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="38" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3413182" y="1951191"/>
-          <a:ext cx="1349317" cy="1062536"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln cap="rnd">
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="65000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>173181</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>86591</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>295908</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>90677</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="31" name="Picture 30"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$B$1:$B$6" spid="_x0000_s4448"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="173181" y="3290455"/>
-              <a:ext cx="3240000" cy="1874449"/>
+              <a:off x="173182" y="1033883"/>
+              <a:ext cx="1451237" cy="880642"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -988,28 +1310,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>234545</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152142</xdr:rowOff>
+      <xdr:colOff>81369</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>102604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>234546</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>29440</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>37875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="31" idx="0"/>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="1793181" y="2888415"/>
-          <a:ext cx="1" cy="402040"/>
+        <a:xfrm>
+          <a:off x="1624419" y="1474204"/>
+          <a:ext cx="719596" cy="582971"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1043,31 +1365,99 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>144607</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19916</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>28515</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="31" name="Picture 30"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Menus!$B$1:$B$6" spid="_x0000_s4701"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="144607" y="2039216"/>
+              <a:ext cx="1426958" cy="865909"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>295908</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>121591</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>86561</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>86590</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>88635</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127276</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19916</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="31" idx="3"/>
-          <a:endCxn id="38" idx="1"/>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="31" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="3413181" y="3013727"/>
-          <a:ext cx="1349318" cy="1213953"/>
+        <a:xfrm flipH="1">
+          <a:off x="858086" y="1914525"/>
+          <a:ext cx="40715" cy="124691"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1101,20 +1491,78 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28515</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>37875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>29440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129021</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="1571565" y="2057175"/>
+          <a:ext cx="772450" cy="414996"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>86590</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>29440</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9527</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>209317</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>87316</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>38099</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>66223</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1123,7 +1571,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$D$1:$D$9" spid="_x0000_s4449"/>
+                  <a14:cameraTool cellRange="Menus!$D$1:$D$9" spid="_x0000_s4702"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1137,8 +1585,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4762499" y="1021773"/>
-              <a:ext cx="3240000" cy="3983907"/>
+              <a:off x="2344015" y="1057277"/>
+              <a:ext cx="1551709" cy="1999796"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1174,15 +1622,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>173180</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>121227</xdr:rowOff>
+          <xdr:colOff>148351</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>295907</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>125313</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>758121</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1191,7 +1639,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$C$1:$C$6" spid="_x0000_s4450"/>
+                  <a14:cameraTool cellRange="Menus!$C$1:$C$6" spid="_x0000_s4703"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1205,8 +1653,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="173180" y="5507182"/>
-              <a:ext cx="3240000" cy="1874449"/>
+              <a:off x="148351" y="3038475"/>
+              <a:ext cx="1381295" cy="838200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1239,16 +1687,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>234544</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>90677</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>67474</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>234545</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>86561</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1260,8 +1708,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="1793180" y="5164904"/>
-          <a:ext cx="1" cy="342278"/>
+          <a:off x="838999" y="2905125"/>
+          <a:ext cx="19087" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1297,16 +1745,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>209317</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119858</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>37875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>155863</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>29317</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>517814</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>118197</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1318,8 +1766,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7829317" y="2977358"/>
-          <a:ext cx="2232546" cy="671459"/>
+          <a:off x="3895724" y="2057175"/>
+          <a:ext cx="1251240" cy="566097"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1357,16 +1805,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>155863</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>17317</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>517814</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>112568</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>428816</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>41317</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>653907</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1375,7 +1823,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$E$1:$E$14" spid="_x0000_s4451"/>
+                  <a14:cameraTool cellRange="Menus!$E$1:$E$14" spid="_x0000_s4704"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1389,8 +1837,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10061863" y="588817"/>
-              <a:ext cx="3320953" cy="6120000"/>
+              <a:off x="5146964" y="998393"/>
+              <a:ext cx="1679143" cy="3249757"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1425,16 +1873,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>200891</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>100445</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>492991</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>125845</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>323618</xdr:colOff>
-          <xdr:row>79</xdr:row>
-          <xdr:rowOff>148938</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>711200</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>127704</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1443,7 +1891,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$F$1:$F$13" spid="_x0000_s4452"/>
+                  <a14:cameraTool cellRange="Menus!$F$1:$F$13" spid="_x0000_s4705"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1457,8 +1905,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10106891" y="6767945"/>
-              <a:ext cx="3170727" cy="5839693"/>
+              <a:off x="5141191" y="4481945"/>
+              <a:ext cx="1767609" cy="3468959"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1491,16 +1939,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>209317</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119858</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>37875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>116898</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1512,8 +1960,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7829317" y="2977358"/>
-          <a:ext cx="2305283" cy="13360615"/>
+          <a:off x="3943349" y="2152425"/>
+          <a:ext cx="1181102" cy="8651523"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1551,16 +1999,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>81</xdr:row>
-          <xdr:rowOff>138546</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>438151</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>119496</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>351327</xdr:colOff>
-          <xdr:row>127</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>741909</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1569,7 +2017,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$G$1:$G$15" spid="_x0000_s4453"/>
+                  <a14:cameraTool cellRange="Menus!$G$1:$G$15" spid="_x0000_s4706"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1583,8 +2031,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10134600" y="12902046"/>
-              <a:ext cx="3170727" cy="6871854"/>
+              <a:off x="5124451" y="8577696"/>
+              <a:ext cx="1865858" cy="4452504"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1617,16 +2065,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>209317</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119858</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>37875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200891</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>124692</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>492991</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>44225</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1638,8 +2086,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7829317" y="2977358"/>
-          <a:ext cx="2277574" cy="6710434"/>
+          <a:off x="3911599" y="2082575"/>
+          <a:ext cx="1229592" cy="4133850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1677,16 +2125,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>130</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>419102</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>389427</xdr:colOff>
-          <xdr:row>152</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>721574</xdr:colOff>
+          <xdr:row>87</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1695,7 +2143,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$H$1:$H$7" spid="_x0000_s4454"/>
+                  <a14:cameraTool cellRange="Menus!$H$1:$H$7" spid="_x0000_s4707"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1709,8 +2157,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10172700" y="20231100"/>
-              <a:ext cx="3170727" cy="3429000"/>
+              <a:off x="5105402" y="13220700"/>
+              <a:ext cx="1864572" cy="2209800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1745,16 +2193,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>177</xdr:row>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>103</xdr:row>
           <xdr:rowOff>138546</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>541827</xdr:colOff>
-          <xdr:row>205</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>623773</xdr:colOff>
+          <xdr:row>120</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1763,7 +2211,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$J$1:$J$9" spid="_x0000_s4455"/>
+                  <a14:cameraTool cellRange="Menus!$J$1:$J$9" spid="_x0000_s4708"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1777,8 +2225,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10325100" y="27532446"/>
-              <a:ext cx="3170727" cy="4242954"/>
+              <a:off x="4972050" y="18197946"/>
+              <a:ext cx="1900123" cy="2795154"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1813,16 +2261,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>153</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>89</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>465627</xdr:colOff>
-          <xdr:row>176</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>102</xdr:row>
+          <xdr:rowOff>59090</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1831,7 +2279,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$I$1:$I$6" spid="_x0000_s4456"/>
+                  <a14:cameraTool cellRange="Menus!$I$1:$I$6" spid="_x0000_s4709"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1845,8 +2293,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10248900" y="23850600"/>
-              <a:ext cx="3170727" cy="3429000"/>
+              <a:off x="5010150" y="15678150"/>
+              <a:ext cx="1905000" cy="2268890"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1879,28 +2327,29 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>37875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>126423</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>164523</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="88" name="Straight Arrow Connector 87"/>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
           <a:endCxn id="83" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7734300" y="3048000"/>
-          <a:ext cx="2590800" cy="26605923"/>
+          <a:off x="3943349" y="2152425"/>
+          <a:ext cx="1028701" cy="17443098"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1936,26 +2385,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>37875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>124795</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="89" name="Straight Arrow Connector 88"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="86" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7772400" y="3086100"/>
-          <a:ext cx="2590800" cy="22593300"/>
+          <a:off x="3943349" y="2152425"/>
+          <a:ext cx="1066801" cy="14660170"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1991,28 +2443,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>209317</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119858</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>37875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419102</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="90" name="Straight Arrow Connector 89"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="82" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7829317" y="2977358"/>
-          <a:ext cx="2343383" cy="19082542"/>
+          <a:off x="3943349" y="2152425"/>
+          <a:ext cx="1162053" cy="12173175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2050,16 +2503,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>21</xdr:col>
-          <xdr:colOff>363682</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>148057</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>477983</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>90909</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>486409</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>152142</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>571883</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>113608</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -2068,7 +2521,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$F$21:$F$25" spid="_x0000_s4457"/>
+                  <a14:cameraTool cellRange="Menus!$F$21:$F$25" spid="_x0000_s4710"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2082,8 +2535,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16365682" y="4834357"/>
-              <a:ext cx="3170727" cy="1832885"/>
+              <a:off x="7507433" y="2376909"/>
+              <a:ext cx="1656000" cy="1051399"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2118,16 +2571,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>21</xdr:col>
-          <xdr:colOff>325582</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>71857</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>458932</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>148057</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>448309</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>75942</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>553923</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -2136,7 +2589,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$F$26:$F$30" spid="_x0000_s4458"/>
+                  <a14:cameraTool cellRange="Menus!$F$26:$F$30" spid="_x0000_s4711"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2150,8 +2603,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16327582" y="6891757"/>
-              <a:ext cx="3170727" cy="1832885"/>
+              <a:off x="7488382" y="3634207"/>
+              <a:ext cx="1657091" cy="1052093"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2186,16 +2639,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>21</xdr:col>
-          <xdr:colOff>401782</xdr:colOff>
-          <xdr:row>55</xdr:row>
-          <xdr:rowOff>109957</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>458933</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>90907</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>524509</xdr:colOff>
-          <xdr:row>67</xdr:row>
-          <xdr:rowOff>114042</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>137554</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -2204,7 +2657,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$F$31:$F$35" spid="_x0000_s4459"/>
+                  <a14:cameraTool cellRange="Menus!$F$31:$F$35" spid="_x0000_s4712"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2218,8 +2671,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16403782" y="8911057"/>
-              <a:ext cx="3170727" cy="1832885"/>
+              <a:off x="7488383" y="4948657"/>
+              <a:ext cx="1693717" cy="1075347"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2254,16 +2707,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>21</xdr:col>
-          <xdr:colOff>401782</xdr:colOff>
-          <xdr:row>68</xdr:row>
-          <xdr:rowOff>33757</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>458933</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>33758</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>524509</xdr:colOff>
-          <xdr:row>80</xdr:row>
-          <xdr:rowOff>37842</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>613932</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -2272,7 +2725,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$F$36:$F$40" spid="_x0000_s4460"/>
+                  <a14:cameraTool cellRange="Menus!$F$36:$F$40" spid="_x0000_s4713"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2286,8 +2739,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16403782" y="10816057"/>
-              <a:ext cx="3170727" cy="1832885"/>
+              <a:off x="7488383" y="6263108"/>
+              <a:ext cx="1717099" cy="1090192"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2322,16 +2775,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>21</xdr:col>
-          <xdr:colOff>401782</xdr:colOff>
-          <xdr:row>80</xdr:row>
-          <xdr:rowOff>148057</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>477983</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>52807</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>524509</xdr:colOff>
-          <xdr:row>92</xdr:row>
-          <xdr:rowOff>152142</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>628650</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>111548</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -2340,7 +2793,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$F$41:$F$45" spid="_x0000_s4461"/>
+                  <a14:cameraTool cellRange="Menus!$F$41:$F$45" spid="_x0000_s4714"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2354,8 +2807,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16403782" y="12759157"/>
-              <a:ext cx="3170727" cy="1832885"/>
+              <a:off x="7507433" y="7482307"/>
+              <a:ext cx="1712767" cy="1087441"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2390,16 +2843,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>21</xdr:col>
-          <xdr:colOff>363682</xdr:colOff>
-          <xdr:row>107</xdr:row>
-          <xdr:rowOff>148057</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>439883</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>129008</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>486409</xdr:colOff>
-          <xdr:row>117</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>703179</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -2408,7 +2861,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$F$46:$F$49" spid="_x0000_s4462"/>
+                  <a14:cameraTool cellRange="Menus!$F$46:$F$49" spid="_x0000_s4715"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2422,8 +2875,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16365682" y="16873957"/>
-              <a:ext cx="3170727" cy="1375943"/>
+              <a:off x="7469333" y="8758658"/>
+              <a:ext cx="1825396" cy="880642"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2458,16 +2911,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>21</xdr:col>
-          <xdr:colOff>401782</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>109957</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>516083</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>5183</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>524509</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>114042</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>626077</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>38101</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -2476,7 +2929,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$F$16:$F$20" spid="_x0000_s4463"/>
+                  <a14:cameraTool cellRange="Menus!$F$16:$F$20" spid="_x0000_s4716"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2490,8 +2943,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16403782" y="2815057"/>
-              <a:ext cx="3170727" cy="1832885"/>
+              <a:off x="7545533" y="1091033"/>
+              <a:ext cx="1672094" cy="1061618"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2524,16 +2977,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>323618</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>124692</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>41050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>363682</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>74029</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>439883</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>54979</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2545,8 +2998,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13277618" y="9687792"/>
-          <a:ext cx="3088064" cy="7874137"/>
+          <a:off x="6959600" y="6441850"/>
+          <a:ext cx="509733" cy="2757129"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2582,16 +3035,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>323618</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>124692</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>401782</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>112000</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>458933</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>41050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2602,9 +3055,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13277618" y="9687792"/>
-          <a:ext cx="3126164" cy="139708"/>
+        <a:xfrm flipV="1">
+          <a:off x="6959600" y="5486331"/>
+          <a:ext cx="528783" cy="955519"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2640,16 +3093,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>323618</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>112000</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>21642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>401782</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>124692</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>516083</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>41050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2661,8 +3114,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="13277618" y="3731500"/>
-          <a:ext cx="3126164" cy="5956292"/>
+          <a:off x="6959600" y="1621842"/>
+          <a:ext cx="585933" cy="4820008"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2698,16 +3151,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>323618</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>124692</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>41050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>401782</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>150100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>477983</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>82178</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2719,8 +3172,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13277618" y="9687792"/>
-          <a:ext cx="3126164" cy="3987808"/>
+          <a:off x="6959600" y="6441850"/>
+          <a:ext cx="547833" cy="1584178"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2756,16 +3209,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>323618</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>73900</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>159754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>325582</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>124692</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>458932</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>41050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2777,8 +3230,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="13277618" y="7808200"/>
-          <a:ext cx="3049964" cy="1879592"/>
+          <a:off x="6959600" y="4160254"/>
+          <a:ext cx="528782" cy="2281596"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2814,16 +3267,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>323618</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>124692</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>41050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>401782</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>35800</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>458933</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>64504</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2835,8 +3288,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13277618" y="9687792"/>
-          <a:ext cx="3126164" cy="2044708"/>
+          <a:off x="6959600" y="6441850"/>
+          <a:ext cx="528783" cy="366354"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2872,16 +3325,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>323618</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>150100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>102259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>363682</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>124692</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>477983</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>41050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2893,8 +3346,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="13277618" y="5750800"/>
-          <a:ext cx="3088064" cy="3936992"/>
+          <a:off x="6959600" y="2902609"/>
+          <a:ext cx="547833" cy="3539241"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2932,16 +3385,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>21</xdr:col>
-          <xdr:colOff>439882</xdr:colOff>
-          <xdr:row>121</xdr:row>
-          <xdr:rowOff>109957</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>497033</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>119482</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>562609</xdr:colOff>
-          <xdr:row>135</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>648870</xdr:colOff>
+          <xdr:row>63</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -2950,7 +3403,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$K$1:$K$5" spid="_x0000_s4464"/>
+                  <a14:cameraTool cellRange="Menus!$K$1:$K$5" spid="_x0000_s4717"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2964,8 +3417,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16441882" y="18969457"/>
-              <a:ext cx="3170727" cy="2023643"/>
+              <a:off x="7526483" y="10120732"/>
+              <a:ext cx="1713937" cy="1214018"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3000,15 +3453,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>325582</xdr:colOff>
-          <xdr:row>129</xdr:row>
-          <xdr:rowOff>109957</xdr:rowOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>744683</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>33757</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>31</xdr:col>
-          <xdr:colOff>448309</xdr:colOff>
-          <xdr:row>138</xdr:row>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>9568</xdr:colOff>
+          <xdr:row>65</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
@@ -3018,7 +3471,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$K$20:$K$23" spid="_x0000_s4465"/>
+                  <a14:cameraTool cellRange="Menus!$K$20:$K$23" spid="_x0000_s4718"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3032,8 +3485,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="20899582" y="20188657"/>
-              <a:ext cx="3170727" cy="1375943"/>
+              <a:off x="10117283" y="10892257"/>
+              <a:ext cx="1608035" cy="766343"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3068,16 +3521,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>21</xdr:col>
-          <xdr:colOff>554182</xdr:colOff>
-          <xdr:row>163</xdr:row>
-          <xdr:rowOff>109957</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>516083</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>148058</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>676909</xdr:colOff>
-          <xdr:row>183</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>91</xdr:row>
+          <xdr:rowOff>144881</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -3086,7 +3539,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$M$1:$M$8" spid="_x0000_s4466"/>
+                  <a14:cameraTool cellRange="Menus!$M$1:$M$8" spid="_x0000_s4719"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3100,8 +3553,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16556182" y="25370257"/>
-              <a:ext cx="3170727" cy="3014243"/>
+              <a:off x="7545533" y="14435558"/>
+              <a:ext cx="1636567" cy="1711323"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3136,16 +3589,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>21</xdr:col>
-          <xdr:colOff>668482</xdr:colOff>
-          <xdr:row>185</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>592283</xdr:colOff>
+          <xdr:row>93</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>26</xdr:col>
-          <xdr:colOff>29209</xdr:colOff>
-          <xdr:row>241</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>119</xdr:row>
+          <xdr:rowOff>91388</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -3154,7 +3607,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$N$1:$N$22" spid="_x0000_s4467"/>
+                  <a14:cameraTool cellRange="Menus!$N$1:$N$22" spid="_x0000_s4720"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3168,8 +3621,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16670482" y="28689300"/>
-              <a:ext cx="3170727" cy="8572500"/>
+              <a:off x="7621733" y="16344900"/>
+              <a:ext cx="1541317" cy="4549088"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3204,16 +3657,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>21</xdr:col>
-          <xdr:colOff>516082</xdr:colOff>
-          <xdr:row>137</xdr:row>
-          <xdr:rowOff>71857</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>554183</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>119482</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>638809</xdr:colOff>
-          <xdr:row>161</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>628650</xdr:colOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>162282</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -3222,7 +3675,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$L$1:$L$10" spid="_x0000_s4468"/>
+                  <a14:cameraTool cellRange="Menus!$L$1:$L$10" spid="_x0000_s4721"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3236,8 +3689,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16518082" y="21369757"/>
-              <a:ext cx="3170727" cy="3700043"/>
+              <a:off x="7583633" y="12006682"/>
+              <a:ext cx="1636567" cy="2100200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3272,16 +3725,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>173182</xdr:colOff>
-          <xdr:row>115</xdr:row>
-          <xdr:rowOff>148057</xdr:rowOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>763733</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>71857</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>31</xdr:col>
-          <xdr:colOff>647100</xdr:colOff>
-          <xdr:row>126</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>7212</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -3290,7 +3743,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$K$16:$K$19" spid="_x0000_s4469"/>
+                  <a14:cameraTool cellRange="Menus!$K$16:$K$19" spid="_x0000_s4722"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3304,8 +3757,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="20747182" y="18093157"/>
-              <a:ext cx="3521918" cy="1528343"/>
+              <a:off x="10136333" y="9730207"/>
+              <a:ext cx="1586629" cy="766343"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3338,16 +3791,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>541827</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>54979</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>623773</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>40691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>439882</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>126423</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>497033</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>164523</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3359,8 +3812,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="13495827" y="19981279"/>
-          <a:ext cx="2946055" cy="9672644"/>
+          <a:off x="6872173" y="10727741"/>
+          <a:ext cx="654310" cy="8867782"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3396,16 +3849,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>562609</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>150229</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>648870</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>112129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>173182</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>54979</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>763733</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>40691</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3417,8 +3870,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="19612609" y="18857329"/>
-          <a:ext cx="1134573" cy="1123950"/>
+          <a:off x="9240420" y="10113379"/>
+          <a:ext cx="895913" cy="614362"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3454,16 +3907,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>562609</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>54979</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>648870</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>40691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>325582</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>35929</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>744683</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>74029</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3475,8 +3928,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19612609" y="19981279"/>
-          <a:ext cx="1286973" cy="895350"/>
+          <a:off x="9240420" y="10727741"/>
+          <a:ext cx="876863" cy="547688"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3512,28 +3965,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>351327</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>741909</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>54979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>439883</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>116898</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="72" name="Straight Arrow Connector 71"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="71" idx="3"/>
+          <a:endCxn id="30" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13305327" y="16337973"/>
-          <a:ext cx="3077673" cy="1340427"/>
+        <a:xfrm flipV="1">
+          <a:off x="6990309" y="9198979"/>
+          <a:ext cx="479024" cy="1604969"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3569,16 +4023,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>541827</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>93079</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>623773</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>140882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>516082</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>126423</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>554183</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>164523</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3590,8 +4044,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="13495827" y="23219779"/>
-          <a:ext cx="3022255" cy="6434144"/>
+          <a:off x="6872173" y="13056782"/>
+          <a:ext cx="711460" cy="6538741"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3627,28 +4081,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>541827</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>623773</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>146470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>126423</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>516083</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>164523</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="80" name="Straight Arrow Connector 79"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="83" idx="3"/>
+          <a:endCxn id="58" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="13495827" y="27012900"/>
-          <a:ext cx="3039573" cy="2641023"/>
+          <a:off x="6872173" y="15291220"/>
+          <a:ext cx="673360" cy="4304303"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3684,16 +4139,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>541827</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>126423</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>623773</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>45694</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>668482</xdr:colOff>
-      <xdr:row>213</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>592283</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>164523</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3704,9 +4159,4845 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="6872173" y="18619444"/>
+          <a:ext cx="749560" cy="976079"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>758121</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>37875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>29440</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="1529646" y="2057175"/>
+          <a:ext cx="814369" cy="1400400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>96983</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>52808</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>47781</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>88900</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Picture 1"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Easy!$A$1:$A$6" spid="_x0000_s9355"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="96983" y="776708"/>
+              <a:ext cx="1500198" cy="861592"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47781</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>153404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175491</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>20637</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13495827" y="29653923"/>
-          <a:ext cx="3174655" cy="3321627"/>
+          <a:off x="1597181" y="1207504"/>
+          <a:ext cx="902410" cy="527633"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>103327</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>63498</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>63501</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>93982</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Picture 3"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Easy!$B$1:$B$6" spid="_x0000_s9356"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="103327" y="1943098"/>
+              <a:ext cx="1509574" cy="855984"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>72382</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83414</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63498</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="847082" y="1638300"/>
+          <a:ext cx="11032" cy="304798"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>20637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175491</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="1612901" y="1735137"/>
+          <a:ext cx="886690" cy="635953"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>175491</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>79374</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>190087</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>127000</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Picture 6"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Easy!$D$1:$D$7" spid="_x0000_s9357"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2499591" y="1133474"/>
+              <a:ext cx="1563996" cy="1203326"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>147779</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>149224</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>51310</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>101600</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Picture 7"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Easy!$C$1:$C$6" spid="_x0000_s9358"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="147779" y="3019424"/>
+              <a:ext cx="1452931" cy="777876"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83414</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>93982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99545</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149224</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="858114" y="2799082"/>
+          <a:ext cx="16131" cy="220342"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190087</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>13637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133637</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>20637</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="4063587" y="1397937"/>
+          <a:ext cx="718250" cy="337200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>133637</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>177677</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>141574</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="Picture 10"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Easy!$E$1:$E$7" spid="_x0000_s9359"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="4781837" y="774700"/>
+              <a:ext cx="1593440" cy="1246474"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>181840</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>138546</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>183743</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Picture 11"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Easy!$F$1:$F$6" spid="_x0000_s9360"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="4830040" y="2183246"/>
+              <a:ext cx="1551303" cy="1029854"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190087</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>20637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177801</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>113723</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4063587" y="1735137"/>
+          <a:ext cx="762414" cy="2239386"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>177801</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>151245</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>186001</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="Picture 13"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Easy!$G$1:$G$9" spid="_x0000_s9361"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="4826001" y="3351645"/>
+              <a:ext cx="1557600" cy="1245755"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190087</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>20637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>181840</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158173</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4063587" y="1735137"/>
+          <a:ext cx="766453" cy="963036"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>196160</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>127000</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>133559</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>139700</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="Picture 15"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Easy!$H$1:$H$7" spid="_x0000_s9362"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="4844360" y="4813300"/>
+              <a:ext cx="1486799" cy="1003300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12701</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>125847</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>5636</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="17" name="Picture 16"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Easy!$I$1:$I$6" spid="_x0000_s9363"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6985001" y="849747"/>
+              <a:ext cx="1536699" cy="1035489"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190087</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>20637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>196160</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4063587" y="1735137"/>
+          <a:ext cx="780773" cy="3579813"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>766906</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>100432</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>41206</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="22" name="Picture 21"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Easy!$F$9:$F$14" spid="_x0000_s9364"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6964506" y="2145132"/>
+              <a:ext cx="1598400" cy="1004468"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>757382</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>17882</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>24617</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="Picture 23"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Easy!$F$15:$F$20" spid="_x0000_s9365"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6954982" y="3383382"/>
+              <a:ext cx="1591335" cy="972718"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>744682</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>14706</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>42440</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="26" name="Picture 25"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Easy!$F$21:$F$26" spid="_x0000_s9366"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6942282" y="4701006"/>
+              <a:ext cx="1621858" cy="975894"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>183743</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>757382</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>8941</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6381343" y="2698173"/>
+          <a:ext cx="573639" cy="1171568"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>183743</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>744682</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7353</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6381343" y="2698173"/>
+          <a:ext cx="560939" cy="2490780"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>183743</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>766906</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158173</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="6381343" y="2647366"/>
+          <a:ext cx="583163" cy="50807"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>177677</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>148292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>13637</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="172" name="Straight Arrow Connector 171"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="6375277" y="1367492"/>
+          <a:ext cx="609724" cy="30445"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>51310</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>20637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175491</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="337" name="Straight Arrow Connector 336"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="1600710" y="1735137"/>
+          <a:ext cx="898881" cy="1673225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>20781</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>14708</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>56184</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Picture 1"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$A$1:$A$6" spid="_x0000_s13395"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="792306" y="900533"/>
+              <a:ext cx="1522269" cy="851101"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>116409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>753340</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2314575" y="1326084"/>
+          <a:ext cx="753340" cy="450328"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>744676</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>9524</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>750233</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Picture 3"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$B$1:$B$6" spid="_x0000_s13396"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="744676" y="2028824"/>
+              <a:ext cx="1548607" cy="752476"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>747455</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10391</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="1518980" y="1751634"/>
+          <a:ext cx="34461" cy="277190"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>750233</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>753340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="2293283" y="1776412"/>
+          <a:ext cx="774632" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>753340</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>161924</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>719</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Picture 6"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$E$1:$E$10" spid="_x0000_s13397"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3067915" y="885824"/>
+              <a:ext cx="1561954" cy="1781176"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>752475</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>3174</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>77216</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Picture 7"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$C$1:$C$6" spid="_x0000_s13398"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="752475" y="2994024"/>
+              <a:ext cx="1600200" cy="883667"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>747455</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3174</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1518980" y="2781300"/>
+          <a:ext cx="33595" cy="212724"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>719</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>65312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>743236</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="4629869" y="1598837"/>
+          <a:ext cx="742517" cy="177575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>743236</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>153841</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>138708</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="Picture 10"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$F$1:$F$8" spid="_x0000_s13399"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5372386" y="877741"/>
+              <a:ext cx="1580864" cy="1442192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>740640</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>157595</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>125188</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Picture 11"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$G$1:$G$14" spid="_x0000_s13400"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5369790" y="2500745"/>
+              <a:ext cx="1602510" cy="2558393"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>719</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>739775</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>67985</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4629869" y="1776412"/>
+          <a:ext cx="739056" cy="8407123"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>739775</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>8370</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>127600</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="Picture 13"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$J$1:$J$15" spid="_x0000_s13401"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5368925" y="8828520"/>
+              <a:ext cx="1584325" cy="2710030"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>719</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>740640</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141392</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4629869" y="1776412"/>
+          <a:ext cx="739921" cy="2003530"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>34925</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>19224</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="Picture 15"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$L$1:$L$7" spid="_x0000_s13402"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5435600" y="11772900"/>
+              <a:ext cx="1527349" cy="1219200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>758824</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>2022</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>742949</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>94040</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="17" name="Picture 16"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$N$1:$N$6" spid="_x0000_s13403"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7702549" y="887847"/>
+              <a:ext cx="1527175" cy="1063568"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>719</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4629869" y="1776412"/>
+          <a:ext cx="805731" cy="10606088"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>763731</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>144881</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>733425</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>46441</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="Picture 18"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$G$15:$G$20" spid="_x0000_s13404"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7707456" y="2164181"/>
+              <a:ext cx="1512744" cy="1035035"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>751031</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>5182</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>723900</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>70840</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="20" name="Picture 19"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$G$21:$G$26" spid="_x0000_s13405"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7694756" y="3319882"/>
+              <a:ext cx="1515919" cy="1037208"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>731981</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>81381</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>768370</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="21" name="Picture 20"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$G$27:$G$32" spid="_x0000_s13406"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7675706" y="4529556"/>
+              <a:ext cx="1579439" cy="1080669"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>751031</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38011</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972300" y="3779942"/>
+          <a:ext cx="722456" cy="58544"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>731981</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>135941</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972300" y="3779942"/>
+          <a:ext cx="703406" cy="1289949"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>763731</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141392</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="6972300" y="2681699"/>
+          <a:ext cx="735156" cy="1098243"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>48031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>758824</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>65312</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="6953250" y="1419631"/>
+          <a:ext cx="749299" cy="179206"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>762001</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>155573</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>28539</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="75" name="Picture 74"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$D$1:$D$6" spid="_x0000_s13407"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="762001" y="4117973"/>
+              <a:ext cx="1581113" cy="873127"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9508</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>77216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>155573</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Arrow Connector 75"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="75" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="1552558" y="3877691"/>
+          <a:ext cx="17" cy="240282"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>753340</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121158</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="Straight Arrow Connector 84"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="2352675" y="1776412"/>
+          <a:ext cx="715240" cy="1659446"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28539</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>753340</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106362</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Straight Arrow Connector 87"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="2343114" y="1776412"/>
+          <a:ext cx="724801" cy="2778125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>758824</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>8369</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>48030</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="183" name="Picture 182"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$H$1:$H$14" spid="_x0000_s13408"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5387974" y="5266169"/>
+              <a:ext cx="1546226" cy="2468536"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>719</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>758824</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>109162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="184" name="Straight Arrow Connector 183"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="183" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4629869" y="1776412"/>
+          <a:ext cx="758105" cy="4724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>749299</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>103619</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>752475</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="187" name="Picture 186"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$I$1:$I$4" spid="_x0000_s13409"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5378449" y="7952219"/>
+              <a:ext cx="1546226" cy="686956"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>719</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>749299</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123247</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="188" name="Straight Arrow Connector 187"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="187" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4629869" y="1776412"/>
+          <a:ext cx="748580" cy="6519285"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>44450</xdr:colOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>28749</xdr:colOff>
+          <xdr:row>85</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="210" name="Picture 209"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$M$1:$M$6" spid="_x0000_s13410"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5445125" y="13306425"/>
+              <a:ext cx="1527349" cy="1009650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>719</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="211" name="Straight Arrow Connector 210"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="210" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4629869" y="1776412"/>
+          <a:ext cx="815256" cy="12034838"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>731981</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>24231</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>768370</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="228" name="Picture 227"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$G$33:$G$38" spid="_x0000_s13411"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7675706" y="5767806"/>
+              <a:ext cx="1579439" cy="1080669"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>731981</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>78791</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="Straight Arrow Connector 231"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="228" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972300" y="3779942"/>
+          <a:ext cx="703406" cy="2528199"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>78791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>731981</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>109162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="235" name="Straight Arrow Connector 234"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="183" idx="3"/>
+          <a:endCxn id="228" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="6934200" y="6308141"/>
+          <a:ext cx="741506" cy="192296"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>751031</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>109956</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>15895</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="241" name="Picture 240"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$K$1:$K$6" spid="_x0000_s13412"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7694756" y="6987006"/>
+              <a:ext cx="1579439" cy="1080669"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>2591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>751031</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>67985</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="242" name="Straight Arrow Connector 241"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="241" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="6953250" y="7527341"/>
+          <a:ext cx="741506" cy="2656194"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>760556</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>28576</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>25420</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="247" name="Picture 246"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$O$1:$O$10" spid="_x0000_s13413"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7704281" y="8201026"/>
+              <a:ext cx="1579439" cy="1571624"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>655781</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>119481</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>692170</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="248" name="Picture 247"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$K$11:$K$14" spid="_x0000_s13414"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="9914081" y="6996531"/>
+              <a:ext cx="1579439" cy="804444"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>684356</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>138531</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>720745</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="249" name="Picture 248"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$K$15:$K$18" spid="_x0000_s13415"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="9942656" y="8310981"/>
+              <a:ext cx="1579439" cy="699669"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>627206</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>33756</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>663595</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="250" name="Picture 249"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$K$7:$K$10" spid="_x0000_s13416"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="9885506" y="5777331"/>
+              <a:ext cx="1579439" cy="794919"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>741506</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>138531</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>6370</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="251" name="Picture 250"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$P$1:$P$8" spid="_x0000_s13417"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7685231" y="9930231"/>
+              <a:ext cx="1579439" cy="1318794"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>741506</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>119480</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>6370</xdr:colOff>
+          <xdr:row>89</xdr:row>
+          <xdr:rowOff>57149</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="252" name="Picture 251"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="Advanced!$Q$1:$Q$23" spid="_x0000_s13418"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7685231" y="11368505"/>
+              <a:ext cx="1579439" cy="3500019"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="333333">
+                  <a:alpha val="65000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>67985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>741506</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>150228</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="255" name="Straight Arrow Connector 254"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="251" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6953250" y="10183535"/>
+          <a:ext cx="731981" cy="406093"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>760556</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>67985</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="259" name="Straight Arrow Connector 258"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="247" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="6953250" y="8986838"/>
+          <a:ext cx="751031" cy="1196697"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>67985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>741506</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>88315</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="267" name="Straight Arrow Connector 266"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="252" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6953250" y="10183535"/>
+          <a:ext cx="731981" cy="2934980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15895</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>107366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>627206</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>2591</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="270" name="Straight Arrow Connector 269"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="241" idx="3"/>
+          <a:endCxn id="250" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="9274195" y="6174791"/>
+          <a:ext cx="611311" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15895</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>35928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>655781</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>2591</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="271" name="Straight Arrow Connector 270"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="241" idx="3"/>
+          <a:endCxn id="248" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="9274195" y="7398753"/>
+          <a:ext cx="639886" cy="128588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="rnd">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15895</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>2591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>684356</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>2591</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="272" name="Straight Arrow Connector 271"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="241" idx="3"/>
+          <a:endCxn id="249" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9274195" y="7527341"/>
+          <a:ext cx="668461" cy="1133475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4118,7 +9409,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -4605,19 +9896,19 @@
     </row>
     <row r="16" spans="1:14" s="5" customFormat="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="2" t="s">
         <v>103</v>
       </c>
@@ -4627,19 +9918,19 @@
     </row>
     <row r="17" spans="1:14" s="5" customFormat="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
       <c r="K17" s="3" t="s">
         <v>104</v>
       </c>
@@ -4649,19 +9940,19 @@
     </row>
     <row r="18" spans="1:14" s="5" customFormat="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="3" t="s">
         <v>105</v>
       </c>
@@ -4671,32 +9962,32 @@
     </row>
     <row r="19" spans="1:14" s="5" customFormat="1">
       <c r="A19" s="3"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="3" t="s">
         <v>79</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="3"/>
       <c r="N19" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="2" t="s">
         <v>106</v>
       </c>
@@ -4705,17 +9996,17 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
       <c r="K21" s="3" t="s">
         <v>104</v>
       </c>
@@ -4724,17 +10015,17 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="3" t="s">
         <v>105</v>
       </c>
@@ -4742,332 +10033,332 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="3"/>
       <c r="M23" s="5"/>
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
       <c r="F46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
       <c r="F47" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
       <c r="F48" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
     </row>
     <row r="49" spans="6:6">
       <c r="F49" s="3"/>
@@ -5088,31 +10379,1659 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AY18" sqref="AY18"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Q60" sqref="Q60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:16" ht="44.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="8" width="21.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="18" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1">
+      <c r="A3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" s="5" customFormat="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" s="5" customFormat="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" s="5" customFormat="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="E37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="E38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="3:9">
+      <c r="E39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="3:9">
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="44.25">
+      <c r="A1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q48"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="13" width="21.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="18" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="4" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="5" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="5" customFormat="1">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="5" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="5" customFormat="1">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="5" customFormat="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="5" customFormat="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="5" customFormat="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="5" customFormat="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="5" customFormat="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="5" customFormat="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="5" customFormat="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="5" customFormat="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="5" customFormat="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="5" customFormat="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="5" customFormat="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="6"/>
+      <c r="Q16" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="5" customFormat="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="6"/>
+      <c r="Q17" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="5" customFormat="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="6"/>
+      <c r="Q18" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="5" customFormat="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="6"/>
+      <c r="Q19" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="Q20" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="Q21" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="3"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="3"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="3:14">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="3:14">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="3:14">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="3:14">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="3:14">
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+    </row>
+    <row r="38" spans="3:14">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="3"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" spans="3:14">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="3:14">
+      <c r="F40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="3:14">
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="3:14">
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="3:14">
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="3:14">
+      <c r="M44" s="7"/>
+    </row>
+    <row r="45" spans="3:14">
+      <c r="M45" s="7"/>
+    </row>
+    <row r="46" spans="3:14">
+      <c r="M46" s="7"/>
+    </row>
+    <row r="47" spans="3:14">
+      <c r="M47" s="7"/>
+    </row>
+    <row r="48" spans="3:14">
+      <c r="M48" s="7"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="44.25">
+      <c r="A1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/Menu Plans.xlsx
+++ b/Menu Plans.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="-15" windowWidth="7710" windowHeight="8235" activeTab="5"/>
+    <workbookView xWindow="7665" yWindow="-15" windowWidth="7710" windowHeight="8235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Menus" sheetId="3" r:id="rId1"/>
@@ -143,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="AB2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="AB3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="AB4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0">
+    <comment ref="AB5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0">
+    <comment ref="AB6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="1">
+    <comment ref="V8" authorId="1">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="AU2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="AU3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0">
+    <comment ref="AU4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -314,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0">
+    <comment ref="AU5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0">
+    <comment ref="AU6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="1">
+    <comment ref="Q11" authorId="1">
       <text>
         <r>
           <rPr>
@@ -356,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="1">
+    <comment ref="Q12" authorId="1">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="1">
+    <comment ref="Q13" authorId="1">
       <text>
         <r>
           <rPr>
@@ -384,36 +384,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q22" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>user:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="185">
   <si>
     <t>Main Menu</t>
   </si>
@@ -1009,9 +985,6 @@
     </r>
   </si>
   <si>
-    <t>Max Temp: 240</t>
-  </si>
-  <si>
     <t>Xmax:199</t>
   </si>
   <si>
@@ -1028,13 +1001,42 @@
   </si>
   <si>
     <t>Z:0.000 L: 0</t>
+  </si>
+  <si>
+    <t>SD 
+Printing</t>
+  </si>
+  <si>
+    <t>Host
+Printing</t>
+  </si>
+  <si>
+    <t>SD
+Pause</t>
+  </si>
+  <si>
+    <t>Host
+Pause</t>
+  </si>
+  <si>
+    <t>No
+Printing</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Mode: Advanced</t>
+  </si>
+  <si>
+    <t>Load Fail-Safe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1088,12 +1090,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
@@ -1101,7 +1097,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1126,8 +1122,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1135,11 +1143,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1152,6 +1175,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1261,7 +1299,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$A$1:$A$6" spid="_x0000_s4700"/>
+                  <a14:cameraTool cellRange="Menus!$A$1:$A$6" spid="_x0000_s4884"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1387,7 +1425,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$B$1:$B$6" spid="_x0000_s4701"/>
+                  <a14:cameraTool cellRange="Menus!$B$1:$B$6" spid="_x0000_s4885"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1571,7 +1609,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$D$1:$D$9" spid="_x0000_s4702"/>
+                  <a14:cameraTool cellRange="Menus!$D$1:$D$9" spid="_x0000_s4886"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1639,7 +1677,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$C$1:$C$6" spid="_x0000_s4703"/>
+                  <a14:cameraTool cellRange="Menus!$C$1:$C$6" spid="_x0000_s4887"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1823,7 +1861,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$E$1:$E$14" spid="_x0000_s4704"/>
+                  <a14:cameraTool cellRange="Menus!$E$1:$E$14" spid="_x0000_s4888"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1891,7 +1929,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$F$1:$F$13" spid="_x0000_s4705"/>
+                  <a14:cameraTool cellRange="Menus!$F$1:$F$13" spid="_x0000_s4889"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2017,7 +2055,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$G$1:$G$15" spid="_x0000_s4706"/>
+                  <a14:cameraTool cellRange="Menus!$G$1:$G$15" spid="_x0000_s4890"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2143,7 +2181,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$H$1:$H$7" spid="_x0000_s4707"/>
+                  <a14:cameraTool cellRange="Menus!$H$1:$H$7" spid="_x0000_s4891"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2211,7 +2249,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$J$1:$J$9" spid="_x0000_s4708"/>
+                  <a14:cameraTool cellRange="Menus!$J$1:$J$9" spid="_x0000_s4892"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2279,7 +2317,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$I$1:$I$6" spid="_x0000_s4709"/>
+                  <a14:cameraTool cellRange="Menus!$I$1:$I$6" spid="_x0000_s4893"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2521,7 +2559,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$F$21:$F$25" spid="_x0000_s4710"/>
+                  <a14:cameraTool cellRange="Menus!$F$21:$F$25" spid="_x0000_s4894"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2589,7 +2627,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$F$26:$F$30" spid="_x0000_s4711"/>
+                  <a14:cameraTool cellRange="Menus!$F$26:$F$30" spid="_x0000_s4895"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2657,7 +2695,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$F$31:$F$35" spid="_x0000_s4712"/>
+                  <a14:cameraTool cellRange="Menus!$F$31:$F$35" spid="_x0000_s4896"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2725,7 +2763,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$F$36:$F$40" spid="_x0000_s4713"/>
+                  <a14:cameraTool cellRange="Menus!$F$36:$F$40" spid="_x0000_s4897"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2793,7 +2831,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$F$41:$F$45" spid="_x0000_s4714"/>
+                  <a14:cameraTool cellRange="Menus!$F$41:$F$45" spid="_x0000_s4898"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2861,7 +2899,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$F$46:$F$49" spid="_x0000_s4715"/>
+                  <a14:cameraTool cellRange="Menus!$F$46:$F$49" spid="_x0000_s4899"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2929,7 +2967,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$F$16:$F$20" spid="_x0000_s4716"/>
+                  <a14:cameraTool cellRange="Menus!$F$16:$F$20" spid="_x0000_s4900"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3403,7 +3441,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$K$1:$K$5" spid="_x0000_s4717"/>
+                  <a14:cameraTool cellRange="Menus!$K$1:$K$5" spid="_x0000_s4901"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3471,7 +3509,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$K$20:$K$23" spid="_x0000_s4718"/>
+                  <a14:cameraTool cellRange="Menus!$K$20:$K$23" spid="_x0000_s4902"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3539,7 +3577,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$M$1:$M$8" spid="_x0000_s4719"/>
+                  <a14:cameraTool cellRange="Menus!$M$1:$M$8" spid="_x0000_s4903"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3607,7 +3645,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$N$1:$N$22" spid="_x0000_s4720"/>
+                  <a14:cameraTool cellRange="Menus!$N$1:$N$22" spid="_x0000_s4904"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3675,7 +3713,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$L$1:$L$10" spid="_x0000_s4721"/>
+                  <a14:cameraTool cellRange="Menus!$L$1:$L$10" spid="_x0000_s4905"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3743,7 +3781,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Menus!$K$16:$K$19" spid="_x0000_s4722"/>
+                  <a14:cameraTool cellRange="Menus!$K$16:$K$19" spid="_x0000_s4906"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4280,7 +4318,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Easy!$A$1:$A$6" spid="_x0000_s9355"/>
+                  <a14:cameraTool cellRange="Easy!$A$1:$A$6" spid="_x0000_s9451"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4406,7 +4444,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Easy!$B$1:$B$6" spid="_x0000_s9356"/>
+                  <a14:cameraTool cellRange="Easy!$B$1:$B$6" spid="_x0000_s9452"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4590,7 +4628,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Easy!$D$1:$D$7" spid="_x0000_s9357"/>
+                  <a14:cameraTool cellRange="Easy!$D$1:$D$7" spid="_x0000_s9453"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4658,7 +4696,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Easy!$C$1:$C$6" spid="_x0000_s9358"/>
+                  <a14:cameraTool cellRange="Easy!$C$1:$C$6" spid="_x0000_s9454"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4842,7 +4880,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Easy!$E$1:$E$7" spid="_x0000_s9359"/>
+                  <a14:cameraTool cellRange="Easy!$J$1:$J$7" spid="_x0000_s9455"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4910,7 +4948,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Easy!$F$1:$F$6" spid="_x0000_s9360"/>
+                  <a14:cameraTool cellRange="Easy!$P$1:$P$6" spid="_x0000_s9456"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5036,7 +5074,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Easy!$G$1:$G$9" spid="_x0000_s9361"/>
+                  <a14:cameraTool cellRange="Easy!$V$1:$V$9" spid="_x0000_s9457"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5162,7 +5200,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Easy!$H$1:$H$7" spid="_x0000_s9362"/>
+                  <a14:cameraTool cellRange="Easy!$AB$1:$AB$7" spid="_x0000_s9458"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5230,7 +5268,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Easy!$I$1:$I$6" spid="_x0000_s9363"/>
+                  <a14:cameraTool cellRange="Easy!$AH$1:$AH$6" spid="_x0000_s9459"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5356,7 +5394,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Easy!$F$9:$F$14" spid="_x0000_s9364"/>
+                  <a14:cameraTool cellRange="Easy!$P$9:$P$14" spid="_x0000_s9460"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5424,7 +5462,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Easy!$F$15:$F$20" spid="_x0000_s9365"/>
+                  <a14:cameraTool cellRange="Easy!$P$15:$P$20" spid="_x0000_s9461"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5492,7 +5530,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Easy!$F$21:$F$26" spid="_x0000_s9366"/>
+                  <a14:cameraTool cellRange="Easy!$P$21:$P$26" spid="_x0000_s9462"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5855,7 +5893,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$A$1:$A$6" spid="_x0000_s13395"/>
+                  <a14:cameraTool cellRange="Advanced!$A$1:$A$6" spid="_x0000_s13587"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5981,7 +6019,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$B$1:$B$6" spid="_x0000_s13396"/>
+                  <a14:cameraTool cellRange="Advanced!$B$1:$B$6" spid="_x0000_s13588"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6165,7 +6203,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$E$1:$E$10" spid="_x0000_s13397"/>
+                  <a14:cameraTool cellRange="Advanced!$E$1:$E$10" spid="_x0000_s13589"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6233,7 +6271,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$C$1:$C$6" spid="_x0000_s13398"/>
+                  <a14:cameraTool cellRange="Advanced!$C$1:$C$6" spid="_x0000_s13590"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6417,7 +6455,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$F$1:$F$8" spid="_x0000_s13399"/>
+                  <a14:cameraTool cellRange="Advanced!$K$1:$K$8" spid="_x0000_s13591"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6485,7 +6523,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$G$1:$G$14" spid="_x0000_s13400"/>
+                  <a14:cameraTool cellRange="Advanced!$Q$1:$Q$14" spid="_x0000_s13592"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6611,7 +6649,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$J$1:$J$15" spid="_x0000_s13401"/>
+                  <a14:cameraTool cellRange="Advanced!$AI$1:$AI$15" spid="_x0000_s13593"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6737,7 +6775,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$L$1:$L$7" spid="_x0000_s13402"/>
+                  <a14:cameraTool cellRange="Advanced!$AU$1:$AU$7" spid="_x0000_s13594"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6805,7 +6843,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$N$1:$N$6" spid="_x0000_s13403"/>
+                  <a14:cameraTool cellRange="Advanced!$BG$1:$BG$6" spid="_x0000_s13595"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6931,7 +6969,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$G$15:$G$20" spid="_x0000_s13404"/>
+                  <a14:cameraTool cellRange="Advanced!$Q$15:$Q$20" spid="_x0000_s13596"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6999,7 +7037,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$G$21:$G$26" spid="_x0000_s13405"/>
+                  <a14:cameraTool cellRange="Advanced!$Q$21:$Q$26" spid="_x0000_s13597"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7067,7 +7105,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$G$27:$G$32" spid="_x0000_s13406"/>
+                  <a14:cameraTool cellRange="Advanced!$Q$27:$Q$32" spid="_x0000_s13598"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7367,7 +7405,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$D$1:$D$6" spid="_x0000_s13407"/>
+                  <a14:cameraTool cellRange="Advanced!$D$1:$D$6" spid="_x0000_s13599"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7609,7 +7647,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$H$1:$H$14" spid="_x0000_s13408"/>
+                  <a14:cameraTool cellRange="Advanced!$W$1:$W$10" spid="_x0000_s13600"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7735,7 +7773,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$I$1:$I$4" spid="_x0000_s13409"/>
+                  <a14:cameraTool cellRange="Advanced!$AC$1:$AC$4" spid="_x0000_s13601"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7861,7 +7899,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$M$1:$M$6" spid="_x0000_s13410"/>
+                  <a14:cameraTool cellRange="Advanced!$BA$1:$BA$6" spid="_x0000_s13602"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7987,7 +8025,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$G$33:$G$38" spid="_x0000_s13411"/>
+                  <a14:cameraTool cellRange="Advanced!$Q$33:$Q$38" spid="_x0000_s13603"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8171,7 +8209,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$K$1:$K$6" spid="_x0000_s13412"/>
+                  <a14:cameraTool cellRange="Advanced!$AO$1:$AO$6" spid="_x0000_s13604"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8297,7 +8335,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$O$1:$O$10" spid="_x0000_s13413"/>
+                  <a14:cameraTool cellRange="Advanced!$BM$1:$BM$10" spid="_x0000_s13605"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8365,7 +8403,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$K$11:$K$14" spid="_x0000_s13414"/>
+                  <a14:cameraTool cellRange="Advanced!$AO$11:$AO$14" spid="_x0000_s13606"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8433,7 +8471,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$K$15:$K$18" spid="_x0000_s13415"/>
+                  <a14:cameraTool cellRange="Advanced!$AO$15:$AO$18" spid="_x0000_s13607"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8501,7 +8539,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$K$7:$K$10" spid="_x0000_s13416"/>
+                  <a14:cameraTool cellRange="Advanced!$AO$7:$AO$10" spid="_x0000_s13608"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8569,7 +8607,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$P$1:$P$8" spid="_x0000_s13417"/>
+                  <a14:cameraTool cellRange="Advanced!$BS$1:$BS$8" spid="_x0000_s13609"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8637,7 +8675,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Advanced!$Q$1:$Q$23" spid="_x0000_s13418"/>
+                  <a14:cameraTool cellRange="Advanced!$BY$1:$BY$23" spid="_x0000_s13610"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10386,24 +10424,24 @@
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:16" ht="44.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -10421,23 +10459,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:AP40"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:F20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="8" width="21.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="4" width="21.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="10" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="10" customWidth="1"/>
+    <col min="13" max="14" width="10.7109375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="10" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" style="10" customWidth="1"/>
+    <col min="19" max="20" width="10.7109375" style="10" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" style="10" customWidth="1"/>
+    <col min="22" max="22" width="21.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="10" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" style="10" customWidth="1"/>
+    <col min="25" max="26" width="10.7109375" style="10" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="10" customWidth="1"/>
+    <col min="28" max="28" width="21.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" style="10" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" style="10" customWidth="1"/>
+    <col min="31" max="32" width="10.7109375" style="10" customWidth="1"/>
+    <col min="33" max="33" width="8.7109375" style="10" customWidth="1"/>
+    <col min="34" max="34" width="21.28515625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="9.7109375" style="10" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" style="10" customWidth="1"/>
+    <col min="37" max="38" width="10.7109375" style="10" customWidth="1"/>
+    <col min="39" max="39" width="8.7109375" style="10" customWidth="1"/>
+    <col min="40" max="40" width="18.5703125" style="1" customWidth="1"/>
+    <col min="41" max="42" width="18" style="1" customWidth="1"/>
+    <col min="43" max="43" width="19.85546875" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1">
+    <row r="1" spans="1:39" s="4" customFormat="1" ht="25.5">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -10450,23 +10516,113 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="W1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="AC1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="AI1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1">
+    <row r="2" spans="1:39" s="5" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -10479,23 +10635,81 @@
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="K2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="Q2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="W2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="AC2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="3" t="s">
         <v>149</v>
       </c>
+      <c r="AI2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1">
+    <row r="3" spans="1:39" s="5" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>170</v>
       </c>
@@ -10508,23 +10722,89 @@
       <c r="D3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="K3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="Q3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="W3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="AC3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="3" t="s">
         <v>151</v>
       </c>
+      <c r="AI3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM3" s="12" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" s="5" customFormat="1">
+    <row r="4" spans="1:39" s="5" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>136</v>
       </c>
@@ -10537,23 +10817,87 @@
       <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="K4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="Q4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="W4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="3" t="s">
         <v>150</v>
       </c>
+      <c r="AI4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM4" s="12" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1">
+    <row r="5" spans="1:39" s="5" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -10566,394 +10910,1282 @@
       <c r="D5" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="K5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="Q5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="W5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH5" s="3" t="s">
         <v>152</v>
       </c>
+      <c r="AI5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM5" s="12" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1">
+    <row r="6" spans="1:39" s="5" customFormat="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="K6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="W6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1">
+    <row r="7" spans="1:39" s="5" customFormat="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="W7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
     </row>
-    <row r="8" spans="1:9" s="5" customFormat="1">
+    <row r="8" spans="1:39" s="5" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="W8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="5" customFormat="1">
+    <row r="9" spans="1:39" s="5" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
     </row>
-    <row r="10" spans="1:9" s="5" customFormat="1">
+    <row r="10" spans="1:39" s="5" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
     </row>
-    <row r="11" spans="1:9" s="5" customFormat="1">
+    <row r="11" spans="1:39" s="5" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
     </row>
-    <row r="12" spans="1:9" s="5" customFormat="1">
+    <row r="12" spans="1:39" s="5" customFormat="1">
       <c r="A12" s="1"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
     </row>
-    <row r="13" spans="1:9" s="5" customFormat="1">
+    <row r="13" spans="1:39" s="5" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
     </row>
-    <row r="14" spans="1:9" s="5" customFormat="1">
+    <row r="14" spans="1:39" s="5" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
     </row>
-    <row r="15" spans="1:9" s="5" customFormat="1">
+    <row r="15" spans="1:39" s="5" customFormat="1">
       <c r="A15" s="1"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
     </row>
-    <row r="16" spans="1:9" s="5" customFormat="1">
+    <row r="16" spans="1:39" s="5" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
     </row>
-    <row r="17" spans="1:12" s="5" customFormat="1">
+    <row r="17" spans="1:42" s="5" customFormat="1">
       <c r="A17" s="1"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
     </row>
-    <row r="18" spans="1:12" s="5" customFormat="1">
+    <row r="18" spans="1:42" s="5" customFormat="1">
       <c r="A18" s="1"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
     </row>
-    <row r="19" spans="1:12" s="5" customFormat="1">
+    <row r="19" spans="1:42" s="5" customFormat="1">
       <c r="A19" s="1"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:42">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="7"/>
+      <c r="AH20" s="7"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:42">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="2" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="7"/>
+      <c r="AH21" s="7"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:42">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="7"/>
+      <c r="AH22" s="7"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:42">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="7"/>
+      <c r="AH23" s="7"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:42">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="L24" s="5"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AP24" s="5"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:42">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="7"/>
+      <c r="AH25" s="7"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:42">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="7"/>
+      <c r="AH26" s="7"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:42">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="7"/>
+      <c r="AH27" s="7"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:42">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="7"/>
+      <c r="AH28" s="7"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:42">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="7"/>
+      <c r="AH29" s="7"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:42">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="7"/>
+      <c r="AH30" s="7"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:42">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="7"/>
+      <c r="AH31" s="7"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:42">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="7"/>
+      <c r="AH32" s="7"/>
     </row>
-    <row r="33" spans="3:9">
+    <row r="33" spans="3:34">
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="7"/>
+      <c r="AH33" s="7"/>
     </row>
-    <row r="34" spans="3:9">
+    <row r="34" spans="3:34">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="7"/>
+      <c r="AH34" s="7"/>
     </row>
-    <row r="35" spans="3:9">
+    <row r="35" spans="3:34">
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="7"/>
+      <c r="AH35" s="7"/>
     </row>
-    <row r="36" spans="3:9">
+    <row r="36" spans="3:34">
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="7"/>
+      <c r="AH36" s="7"/>
     </row>
-    <row r="37" spans="3:9">
-      <c r="E37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+    <row r="37" spans="3:34">
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="V37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AH37" s="7"/>
     </row>
-    <row r="38" spans="3:9">
-      <c r="E38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+    <row r="38" spans="3:34">
+      <c r="J38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AH38" s="7"/>
     </row>
-    <row r="39" spans="3:9">
-      <c r="E39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+    <row r="39" spans="3:34">
+      <c r="J39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AH39" s="7"/>
     </row>
-    <row r="40" spans="3:9">
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+    <row r="40" spans="3:34">
+      <c r="AB40" s="7"/>
+      <c r="AH40" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -10978,24 +12210,24 @@
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:16" ht="44.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -11013,23 +12245,84 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:CD48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:K18"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="BZ2" sqref="BZ2:CD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="13" width="21.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="18" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="5" width="21.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="10" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="10" customWidth="1"/>
+    <col min="11" max="11" width="24" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="10" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="10" customWidth="1"/>
+    <col min="14" max="15" width="10.7109375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="10" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="10" customWidth="1"/>
+    <col min="20" max="21" width="10.7109375" style="10" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="10" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" style="10" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" style="10" customWidth="1"/>
+    <col min="26" max="27" width="10.7109375" style="10" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" style="10" customWidth="1"/>
+    <col min="29" max="29" width="21.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="9.7109375" style="10" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" style="10" customWidth="1"/>
+    <col min="32" max="33" width="10.7109375" style="10" customWidth="1"/>
+    <col min="34" max="34" width="8.7109375" style="10" customWidth="1"/>
+    <col min="35" max="35" width="21.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="9.7109375" style="10" customWidth="1"/>
+    <col min="37" max="37" width="12.28515625" style="10" customWidth="1"/>
+    <col min="38" max="39" width="10.7109375" style="10" customWidth="1"/>
+    <col min="40" max="40" width="8.7109375" style="10" customWidth="1"/>
+    <col min="41" max="41" width="21.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="9.7109375" style="10" customWidth="1"/>
+    <col min="43" max="43" width="12.28515625" style="10" customWidth="1"/>
+    <col min="44" max="45" width="10.7109375" style="10" customWidth="1"/>
+    <col min="46" max="46" width="8.7109375" style="10" customWidth="1"/>
+    <col min="47" max="47" width="21.7109375" style="1" customWidth="1"/>
+    <col min="48" max="48" width="9.7109375" style="10" customWidth="1"/>
+    <col min="49" max="49" width="12.28515625" style="10" customWidth="1"/>
+    <col min="50" max="51" width="10.7109375" style="10" customWidth="1"/>
+    <col min="52" max="52" width="8.7109375" style="10" customWidth="1"/>
+    <col min="53" max="53" width="21.7109375" style="1" customWidth="1"/>
+    <col min="54" max="54" width="9.7109375" style="10" customWidth="1"/>
+    <col min="55" max="55" width="12.28515625" style="10" customWidth="1"/>
+    <col min="56" max="57" width="10.7109375" style="10" customWidth="1"/>
+    <col min="58" max="58" width="8.7109375" style="10" customWidth="1"/>
+    <col min="59" max="59" width="21.28515625" style="1" customWidth="1"/>
+    <col min="60" max="60" width="9.7109375" style="10" customWidth="1"/>
+    <col min="61" max="61" width="12.28515625" style="10" customWidth="1"/>
+    <col min="62" max="63" width="10.7109375" style="10" customWidth="1"/>
+    <col min="64" max="64" width="8.7109375" style="10" customWidth="1"/>
+    <col min="65" max="65" width="18.5703125" style="1" customWidth="1"/>
+    <col min="66" max="66" width="9.7109375" style="10" customWidth="1"/>
+    <col min="67" max="67" width="12.28515625" style="10" customWidth="1"/>
+    <col min="68" max="69" width="10.7109375" style="10" customWidth="1"/>
+    <col min="70" max="70" width="8.7109375" style="10" customWidth="1"/>
+    <col min="71" max="71" width="18" style="1" customWidth="1"/>
+    <col min="72" max="72" width="9.7109375" style="10" customWidth="1"/>
+    <col min="73" max="73" width="12.28515625" style="10" customWidth="1"/>
+    <col min="74" max="75" width="10.7109375" style="10" customWidth="1"/>
+    <col min="76" max="76" width="8.7109375" style="10" customWidth="1"/>
+    <col min="77" max="77" width="18" style="1" customWidth="1"/>
+    <col min="78" max="78" width="9.7109375" style="10" customWidth="1"/>
+    <col min="79" max="79" width="12.28515625" style="10" customWidth="1"/>
+    <col min="80" max="81" width="10.7109375" style="10" customWidth="1"/>
+    <col min="82" max="82" width="8.7109375" style="10" customWidth="1"/>
+    <col min="83" max="83" width="19.85546875" style="1" customWidth="1"/>
+    <col min="84" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1">
+    <row r="1" spans="1:82" s="4" customFormat="1" ht="25.5">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -11040,49 +12333,244 @@
         <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="R1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="X1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="AD1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="AJ1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="AP1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="AU1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="AV1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AY1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AZ1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="BA1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="BB1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="BC1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="BD1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="BE1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="BF1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="BG1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="BH1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="BI1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="BJ1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="BK1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="BL1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="BM1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="BN1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="BO1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="BP1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="BQ1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="BR1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="BS1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="BT1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="BU1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="BV1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="BW1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="BX1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="BY1" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="BZ1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="CA1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="CB1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="CC1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="CD1" s="11" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1">
+    <row r="2" spans="1:82" s="5" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -11098,44 +12586,183 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="L2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="R2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="AD2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO2" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="AP2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AR2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="AV2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="BB2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BC2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="BH2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BL2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BM2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="BN2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BO2" s="12"/>
+      <c r="BP2" s="12"/>
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="12"/>
+      <c r="BS2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="BT2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BU2" s="12"/>
+      <c r="BV2" s="12"/>
+      <c r="BW2" s="12"/>
+      <c r="BX2" s="12"/>
+      <c r="BY2" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="BZ2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA2" s="12"/>
+      <c r="CB2" s="12"/>
+      <c r="CC2" s="12"/>
+      <c r="CD2" s="12"/>
     </row>
-    <row r="3" spans="1:17" s="5" customFormat="1">
+    <row r="3" spans="1:82" s="5" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -11151,52 +12778,191 @@
       <c r="E3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="L3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="R3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="AD3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="AJ3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO3" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="AP3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AR3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="AV3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="12"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="BB3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BC3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG3" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="BH3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BI3" s="12"/>
+      <c r="BJ3" s="12"/>
+      <c r="BK3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BL3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BM3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="BN3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BO3" s="12"/>
+      <c r="BP3" s="12"/>
+      <c r="BQ3" s="12"/>
+      <c r="BR3" s="12"/>
+      <c r="BS3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="BT3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BU3" s="12"/>
+      <c r="BV3" s="12"/>
+      <c r="BW3" s="12"/>
+      <c r="BX3" s="12"/>
+      <c r="BY3" s="3" t="s">
         <v>133</v>
       </c>
+      <c r="BZ3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA3" s="12"/>
+      <c r="CB3" s="12"/>
+      <c r="CC3" s="12"/>
+      <c r="CD3" s="12"/>
     </row>
-    <row r="4" spans="1:17" s="5" customFormat="1">
+    <row r="4" spans="1:82" s="5" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -11204,42 +12970,169 @@
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="L4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
+      <c r="R4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="AJ4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="AP4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AR4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="BB4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BC4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG4" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="BH4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BI4" s="12"/>
+      <c r="BJ4" s="12"/>
+      <c r="BK4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BL4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BM4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="BN4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BO4" s="12"/>
+      <c r="BP4" s="12"/>
+      <c r="BQ4" s="12"/>
+      <c r="BR4" s="12"/>
+      <c r="BS4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="BT4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BU4" s="12"/>
+      <c r="BV4" s="12"/>
+      <c r="BW4" s="12"/>
+      <c r="BX4" s="12"/>
+      <c r="BY4" s="3" t="s">
         <v>115</v>
       </c>
+      <c r="BZ4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA4" s="12"/>
+      <c r="CB4" s="12"/>
+      <c r="CC4" s="12"/>
+      <c r="CD4" s="12"/>
     </row>
-    <row r="5" spans="1:17" s="5" customFormat="1">
+    <row r="5" spans="1:82" s="5" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -11253,42 +13146,177 @@
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="L5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
+      <c r="R5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="AJ5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="AP5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AR5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="BB5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BC5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG5" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="BH5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BL5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BM5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="BN5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BO5" s="12"/>
+      <c r="BP5" s="12"/>
+      <c r="BQ5" s="12"/>
+      <c r="BR5" s="12"/>
+      <c r="BS5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="BT5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BU5" s="12"/>
+      <c r="BV5" s="12"/>
+      <c r="BW5" s="12"/>
+      <c r="BX5" s="12"/>
+      <c r="BY5" s="3" t="s">
         <v>116</v>
       </c>
+      <c r="BZ5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA5" s="12"/>
+      <c r="CB5" s="12"/>
+      <c r="CC5" s="12"/>
+      <c r="CD5" s="12"/>
     </row>
-    <row r="6" spans="1:17" s="5" customFormat="1">
+    <row r="6" spans="1:82" s="5" customFormat="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -11296,36 +13324,145 @@
       <c r="E6" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="L6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="3" t="s">
+      <c r="R6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
+      <c r="AJ6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3" t="s">
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="10"/>
+      <c r="BI6" s="10"/>
+      <c r="BJ6" s="10"/>
+      <c r="BK6" s="10"/>
+      <c r="BL6" s="10"/>
+      <c r="BM6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="BN6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BO6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BQ6" s="12"/>
+      <c r="BR6" s="12"/>
+      <c r="BS6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="BT6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BU6" s="12"/>
+      <c r="BV6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BX6" s="12"/>
+      <c r="BY6" s="3" t="s">
         <v>117</v>
       </c>
+      <c r="BZ6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA6" s="12"/>
+      <c r="CB6" s="12"/>
+      <c r="CC6" s="12"/>
+      <c r="CD6" s="12"/>
     </row>
-    <row r="7" spans="1:17" s="5" customFormat="1">
+    <row r="7" spans="1:82" s="5" customFormat="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -11333,36 +13470,145 @@
       <c r="E7" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="L7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="3" t="s">
+      <c r="R7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="AJ7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO7" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3" t="s">
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="10"/>
+      <c r="BE7" s="10"/>
+      <c r="BF7" s="10"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="10"/>
+      <c r="BI7" s="10"/>
+      <c r="BJ7" s="10"/>
+      <c r="BK7" s="10"/>
+      <c r="BL7" s="10"/>
+      <c r="BM7" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="BN7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BO7" s="12"/>
+      <c r="BP7" s="12"/>
+      <c r="BQ7" s="12"/>
+      <c r="BR7" s="12"/>
+      <c r="BS7" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="BT7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BU7" s="12"/>
+      <c r="BV7" s="12"/>
+      <c r="BW7" s="12"/>
+      <c r="BX7" s="12"/>
+      <c r="BY7" s="3" t="s">
         <v>118</v>
       </c>
+      <c r="BZ7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA7" s="12"/>
+      <c r="CB7" s="12"/>
+      <c r="CC7" s="12"/>
+      <c r="CD7" s="12"/>
     </row>
-    <row r="8" spans="1:17" s="5" customFormat="1">
+    <row r="8" spans="1:82" s="5" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -11370,32 +13616,133 @@
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="3" t="s">
+      <c r="R8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="AJ8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO8" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3" t="s">
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="10"/>
+      <c r="AZ8" s="10"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="10"/>
+      <c r="BC8" s="10"/>
+      <c r="BD8" s="10"/>
+      <c r="BE8" s="10"/>
+      <c r="BF8" s="10"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="10"/>
+      <c r="BI8" s="10"/>
+      <c r="BJ8" s="10"/>
+      <c r="BK8" s="10"/>
+      <c r="BL8" s="10"/>
+      <c r="BM8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3" t="s">
+      <c r="BN8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BO8" s="12"/>
+      <c r="BP8" s="12"/>
+      <c r="BQ8" s="12"/>
+      <c r="BR8" s="12"/>
+      <c r="BS8" s="3"/>
+      <c r="BT8" s="10"/>
+      <c r="BU8" s="10"/>
+      <c r="BV8" s="10"/>
+      <c r="BW8" s="10"/>
+      <c r="BX8" s="10"/>
+      <c r="BY8" s="3" t="s">
         <v>119</v>
       </c>
+      <c r="BZ8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA8" s="12"/>
+      <c r="CB8" s="12"/>
+      <c r="CC8" s="12"/>
+      <c r="CD8" s="12"/>
     </row>
-    <row r="9" spans="1:17" s="5" customFormat="1">
+    <row r="9" spans="1:82" s="5" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -11403,593 +13750,1585 @@
       <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="3" t="s">
+      <c r="R9" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="AJ9" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="3" t="s">
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="10"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="10"/>
+      <c r="BC9" s="10"/>
+      <c r="BD9" s="10"/>
+      <c r="BE9" s="10"/>
+      <c r="BF9" s="10"/>
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="10"/>
+      <c r="BI9" s="10"/>
+      <c r="BJ9" s="10"/>
+      <c r="BK9" s="10"/>
+      <c r="BL9" s="10"/>
+      <c r="BM9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3" t="s">
+      <c r="BN9" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BO9" s="12"/>
+      <c r="BP9" s="12"/>
+      <c r="BQ9" s="12"/>
+      <c r="BR9" s="12"/>
+      <c r="BS9" s="3"/>
+      <c r="BT9" s="10"/>
+      <c r="BU9" s="10"/>
+      <c r="BV9" s="10"/>
+      <c r="BW9" s="10"/>
+      <c r="BX9" s="10"/>
+      <c r="BY9" s="3" t="s">
         <v>120</v>
       </c>
+      <c r="BZ9" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA9" s="12"/>
+      <c r="CB9" s="12"/>
+      <c r="CC9" s="12"/>
+      <c r="CD9" s="12"/>
     </row>
-    <row r="10" spans="1:17" s="5" customFormat="1">
+    <row r="10" spans="1:82" s="5" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="3" t="s">
+      <c r="R10" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3" t="s">
+      <c r="AJ10" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="10"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="10"/>
+      <c r="BD10" s="10"/>
+      <c r="BE10" s="10"/>
+      <c r="BF10" s="10"/>
+      <c r="BG10" s="6"/>
+      <c r="BH10" s="10"/>
+      <c r="BI10" s="10"/>
+      <c r="BJ10" s="10"/>
+      <c r="BK10" s="10"/>
+      <c r="BL10" s="10"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="10"/>
+      <c r="BO10" s="10"/>
+      <c r="BP10" s="10"/>
+      <c r="BQ10" s="10"/>
+      <c r="BR10" s="10"/>
+      <c r="BS10" s="3"/>
+      <c r="BT10" s="10"/>
+      <c r="BU10" s="10"/>
+      <c r="BV10" s="10"/>
+      <c r="BW10" s="10"/>
+      <c r="BX10" s="10"/>
+      <c r="BY10" s="3" t="s">
         <v>121</v>
       </c>
+      <c r="BZ10" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA10" s="12"/>
+      <c r="CB10" s="12"/>
+      <c r="CC10" s="12"/>
+      <c r="CD10" s="12"/>
     </row>
-    <row r="11" spans="1:17" s="5" customFormat="1">
+    <row r="11" spans="1:82" s="5" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="3" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="AJ11" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3" t="s">
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="10"/>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="10"/>
+      <c r="BD11" s="10"/>
+      <c r="BE11" s="10"/>
+      <c r="BF11" s="10"/>
+      <c r="BG11" s="6"/>
+      <c r="BH11" s="10"/>
+      <c r="BI11" s="10"/>
+      <c r="BJ11" s="10"/>
+      <c r="BK11" s="10"/>
+      <c r="BL11" s="10"/>
+      <c r="BM11" s="3"/>
+      <c r="BN11" s="10"/>
+      <c r="BO11" s="10"/>
+      <c r="BP11" s="10"/>
+      <c r="BQ11" s="10"/>
+      <c r="BR11" s="10"/>
+      <c r="BS11" s="3"/>
+      <c r="BT11" s="10"/>
+      <c r="BU11" s="10"/>
+      <c r="BV11" s="10"/>
+      <c r="BW11" s="10"/>
+      <c r="BX11" s="10"/>
+      <c r="BY11" s="3" t="s">
         <v>122</v>
       </c>
+      <c r="BZ11" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA11" s="12"/>
+      <c r="CB11" s="12"/>
+      <c r="CC11" s="12"/>
+      <c r="CD11" s="12"/>
     </row>
-    <row r="12" spans="1:17" s="5" customFormat="1">
+    <row r="12" spans="1:82" s="5" customFormat="1">
       <c r="A12" s="1"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="3" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="AJ12" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3" t="s">
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="10"/>
+      <c r="AZ12" s="10"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="10"/>
+      <c r="BC12" s="10"/>
+      <c r="BD12" s="10"/>
+      <c r="BE12" s="10"/>
+      <c r="BF12" s="10"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="10"/>
+      <c r="BI12" s="10"/>
+      <c r="BJ12" s="10"/>
+      <c r="BK12" s="10"/>
+      <c r="BL12" s="10"/>
+      <c r="BM12" s="3"/>
+      <c r="BN12" s="10"/>
+      <c r="BO12" s="10"/>
+      <c r="BP12" s="10"/>
+      <c r="BQ12" s="10"/>
+      <c r="BR12" s="10"/>
+      <c r="BS12" s="3"/>
+      <c r="BT12" s="10"/>
+      <c r="BU12" s="10"/>
+      <c r="BV12" s="10"/>
+      <c r="BW12" s="10"/>
+      <c r="BX12" s="10"/>
+      <c r="BY12" s="3" t="s">
         <v>123</v>
       </c>
+      <c r="BZ12" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA12" s="12"/>
+      <c r="CB12" s="12"/>
+      <c r="CC12" s="12"/>
+      <c r="CD12" s="12"/>
     </row>
-    <row r="13" spans="1:17" s="5" customFormat="1">
+    <row r="13" spans="1:82" s="5" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="3" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="AJ13" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3" t="s">
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="7"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="10"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="10"/>
+      <c r="BC13" s="10"/>
+      <c r="BD13" s="10"/>
+      <c r="BE13" s="10"/>
+      <c r="BF13" s="10"/>
+      <c r="BH13" s="10"/>
+      <c r="BI13" s="10"/>
+      <c r="BJ13" s="10"/>
+      <c r="BK13" s="10"/>
+      <c r="BL13" s="10"/>
+      <c r="BM13" s="3"/>
+      <c r="BN13" s="10"/>
+      <c r="BO13" s="10"/>
+      <c r="BP13" s="10"/>
+      <c r="BQ13" s="10"/>
+      <c r="BR13" s="10"/>
+      <c r="BS13" s="3"/>
+      <c r="BT13" s="10"/>
+      <c r="BU13" s="10"/>
+      <c r="BV13" s="10"/>
+      <c r="BW13" s="10"/>
+      <c r="BX13" s="10"/>
+      <c r="BY13" s="3" t="s">
         <v>124</v>
       </c>
+      <c r="BZ13" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA13" s="12"/>
+      <c r="CB13" s="12"/>
+      <c r="CC13" s="12"/>
+      <c r="CD13" s="12"/>
     </row>
-    <row r="14" spans="1:17" s="5" customFormat="1">
+    <row r="14" spans="1:82" s="5" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="3" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3" t="s">
+      <c r="AJ14" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="10"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="10"/>
+      <c r="BC14" s="10"/>
+      <c r="BD14" s="10"/>
+      <c r="BE14" s="10"/>
+      <c r="BF14" s="10"/>
+      <c r="BH14" s="10"/>
+      <c r="BI14" s="10"/>
+      <c r="BJ14" s="10"/>
+      <c r="BK14" s="10"/>
+      <c r="BL14" s="10"/>
+      <c r="BM14" s="3"/>
+      <c r="BN14" s="10"/>
+      <c r="BO14" s="10"/>
+      <c r="BP14" s="10"/>
+      <c r="BQ14" s="10"/>
+      <c r="BR14" s="10"/>
+      <c r="BS14" s="3"/>
+      <c r="BT14" s="10"/>
+      <c r="BU14" s="10"/>
+      <c r="BV14" s="10"/>
+      <c r="BW14" s="10"/>
+      <c r="BX14" s="10"/>
+      <c r="BY14" s="3" t="s">
         <v>125</v>
       </c>
+      <c r="BZ14" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA14" s="12"/>
+      <c r="CB14" s="12"/>
+      <c r="CC14" s="12"/>
+      <c r="CD14" s="12"/>
     </row>
-    <row r="15" spans="1:17" s="5" customFormat="1">
+    <row r="15" spans="1:82" s="5" customFormat="1">
       <c r="A15" s="1"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="2" t="s">
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ15" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3" t="s">
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="7"/>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10"/>
+      <c r="AY15" s="10"/>
+      <c r="AZ15" s="10"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="10"/>
+      <c r="BC15" s="10"/>
+      <c r="BD15" s="10"/>
+      <c r="BE15" s="10"/>
+      <c r="BF15" s="10"/>
+      <c r="BH15" s="10"/>
+      <c r="BI15" s="10"/>
+      <c r="BJ15" s="10"/>
+      <c r="BK15" s="10"/>
+      <c r="BL15" s="10"/>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="10"/>
+      <c r="BO15" s="10"/>
+      <c r="BP15" s="10"/>
+      <c r="BQ15" s="10"/>
+      <c r="BR15" s="10"/>
+      <c r="BS15" s="3"/>
+      <c r="BT15" s="10"/>
+      <c r="BU15" s="10"/>
+      <c r="BV15" s="10"/>
+      <c r="BW15" s="10"/>
+      <c r="BX15" s="10"/>
+      <c r="BY15" s="3" t="s">
         <v>126</v>
       </c>
+      <c r="BZ15" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA15" s="12"/>
+      <c r="CB15" s="12"/>
+      <c r="CC15" s="12"/>
+      <c r="CD15" s="12"/>
     </row>
-    <row r="16" spans="1:17" s="5" customFormat="1">
+    <row r="16" spans="1:82" s="5" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="3" t="s">
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="6"/>
-      <c r="Q16" s="3" t="s">
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="7"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="10"/>
+      <c r="BA16" s="6"/>
+      <c r="BB16" s="10"/>
+      <c r="BC16" s="10"/>
+      <c r="BD16" s="10"/>
+      <c r="BE16" s="10"/>
+      <c r="BF16" s="10"/>
+      <c r="BH16" s="10"/>
+      <c r="BI16" s="10"/>
+      <c r="BJ16" s="10"/>
+      <c r="BK16" s="10"/>
+      <c r="BL16" s="10"/>
+      <c r="BN16" s="10"/>
+      <c r="BO16" s="10"/>
+      <c r="BP16" s="10"/>
+      <c r="BQ16" s="10"/>
+      <c r="BR16" s="10"/>
+      <c r="BT16" s="10"/>
+      <c r="BU16" s="10"/>
+      <c r="BV16" s="10"/>
+      <c r="BW16" s="10"/>
+      <c r="BX16" s="10"/>
+      <c r="BY16" s="3" t="s">
         <v>127</v>
       </c>
+      <c r="BZ16" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA16" s="12"/>
+      <c r="CB16" s="12"/>
+      <c r="CC16" s="12"/>
+      <c r="CD16" s="12"/>
     </row>
-    <row r="17" spans="1:17" s="5" customFormat="1">
+    <row r="17" spans="1:82" s="5" customFormat="1">
       <c r="A17" s="1"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="3" t="s">
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="6"/>
-      <c r="Q17" s="3" t="s">
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="7"/>
+      <c r="AV17" s="10"/>
+      <c r="AW17" s="10"/>
+      <c r="AX17" s="10"/>
+      <c r="AY17" s="10"/>
+      <c r="AZ17" s="10"/>
+      <c r="BA17" s="6"/>
+      <c r="BB17" s="10"/>
+      <c r="BC17" s="10"/>
+      <c r="BD17" s="10"/>
+      <c r="BE17" s="10"/>
+      <c r="BF17" s="10"/>
+      <c r="BH17" s="10"/>
+      <c r="BI17" s="10"/>
+      <c r="BJ17" s="10"/>
+      <c r="BK17" s="10"/>
+      <c r="BL17" s="10"/>
+      <c r="BN17" s="10"/>
+      <c r="BO17" s="10"/>
+      <c r="BP17" s="10"/>
+      <c r="BQ17" s="10"/>
+      <c r="BR17" s="10"/>
+      <c r="BT17" s="10"/>
+      <c r="BU17" s="10"/>
+      <c r="BV17" s="10"/>
+      <c r="BW17" s="10"/>
+      <c r="BX17" s="10"/>
+      <c r="BY17" s="3" t="s">
         <v>129</v>
       </c>
+      <c r="BZ17" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA17" s="12"/>
+      <c r="CB17" s="12"/>
+      <c r="CC17" s="12"/>
+      <c r="CD17" s="12"/>
     </row>
-    <row r="18" spans="1:17" s="5" customFormat="1">
+    <row r="18" spans="1:82" s="5" customFormat="1">
       <c r="A18" s="1"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="6"/>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="10"/>
+      <c r="BC18" s="10"/>
+      <c r="BD18" s="10"/>
+      <c r="BE18" s="10"/>
+      <c r="BF18" s="10"/>
+      <c r="BH18" s="10"/>
+      <c r="BI18" s="10"/>
+      <c r="BJ18" s="10"/>
+      <c r="BK18" s="10"/>
+      <c r="BL18" s="10"/>
+      <c r="BN18" s="10"/>
+      <c r="BO18" s="10"/>
+      <c r="BP18" s="10"/>
+      <c r="BQ18" s="10"/>
+      <c r="BR18" s="10"/>
+      <c r="BT18" s="10"/>
+      <c r="BU18" s="10"/>
+      <c r="BV18" s="10"/>
+      <c r="BW18" s="10"/>
+      <c r="BX18" s="10"/>
+      <c r="BY18" s="3" t="s">
         <v>128</v>
       </c>
+      <c r="BZ18" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA18" s="12"/>
+      <c r="CB18" s="12"/>
+      <c r="CC18" s="12"/>
+      <c r="CD18" s="12"/>
     </row>
-    <row r="19" spans="1:17" s="5" customFormat="1">
+    <row r="19" spans="1:82" s="5" customFormat="1">
       <c r="A19" s="1"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="6"/>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="10"/>
+      <c r="AX19" s="10"/>
+      <c r="AY19" s="10"/>
+      <c r="AZ19" s="10"/>
+      <c r="BA19" s="6"/>
+      <c r="BB19" s="10"/>
+      <c r="BC19" s="10"/>
+      <c r="BD19" s="10"/>
+      <c r="BE19" s="10"/>
+      <c r="BF19" s="10"/>
+      <c r="BH19" s="10"/>
+      <c r="BI19" s="10"/>
+      <c r="BJ19" s="10"/>
+      <c r="BK19" s="10"/>
+      <c r="BL19" s="10"/>
+      <c r="BN19" s="10"/>
+      <c r="BO19" s="10"/>
+      <c r="BP19" s="10"/>
+      <c r="BQ19" s="10"/>
+      <c r="BR19" s="10"/>
+      <c r="BT19" s="10"/>
+      <c r="BU19" s="10"/>
+      <c r="BV19" s="10"/>
+      <c r="BW19" s="10"/>
+      <c r="BX19" s="10"/>
+      <c r="BY19" s="3" t="s">
         <v>130</v>
       </c>
+      <c r="BZ19" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA19" s="12"/>
+      <c r="CB19" s="12"/>
+      <c r="CC19" s="12"/>
+      <c r="CD19" s="12"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:82">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="J20" s="7"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="Q20" s="3" t="s">
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="3"/>
+      <c r="AI20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AU20" s="7"/>
+      <c r="BA20" s="7"/>
+      <c r="BG20" s="7"/>
+      <c r="BY20" s="3" t="s">
         <v>131</v>
       </c>
+      <c r="BZ20" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA20" s="12"/>
+      <c r="CB20" s="12"/>
+      <c r="CC20" s="12"/>
+      <c r="CD20" s="12"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:82">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="Q21" s="3" t="s">
+      <c r="AI21" s="7"/>
+      <c r="AO21" s="7"/>
+      <c r="AU21" s="7"/>
+      <c r="BA21" s="7"/>
+      <c r="BG21" s="7"/>
+      <c r="BY21" s="3" t="s">
         <v>132</v>
       </c>
+      <c r="BZ21" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA21" s="12"/>
+      <c r="CB21" s="12"/>
+      <c r="CC21" s="12"/>
+      <c r="CD21" s="12"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:82">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="AI22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AU22" s="7"/>
+      <c r="BA22" s="7"/>
+      <c r="BG22" s="7"/>
+      <c r="BS22" s="5"/>
+      <c r="BY22" s="3"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:82">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="3" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="Q23" s="3"/>
+      <c r="AI23" s="7"/>
+      <c r="AO23" s="7"/>
+      <c r="AU23" s="7"/>
+      <c r="BA23" s="7"/>
+      <c r="BG23" s="7"/>
+      <c r="BY23" s="3"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:82">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="Q24" s="5"/>
+      <c r="AI24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AU24" s="7"/>
+      <c r="BA24" s="7"/>
+      <c r="BG24" s="7"/>
+      <c r="BY24" s="5"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:82">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="3" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AO25" s="7"/>
+      <c r="AU25" s="7"/>
+      <c r="BA25" s="7"/>
+      <c r="BG25" s="7"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:82">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="3"/>
-      <c r="J26" s="7"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="3"/>
+      <c r="AI26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AU26" s="7"/>
+      <c r="BA26" s="7"/>
+      <c r="BG26" s="7"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:82">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="2" t="s">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AO27" s="7"/>
+      <c r="AU27" s="7"/>
+      <c r="BA27" s="7"/>
+      <c r="BG27" s="7"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:82">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AO28" s="7"/>
+      <c r="AU28" s="7"/>
+      <c r="BA28" s="7"/>
+      <c r="BG28" s="7"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:82">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AO29" s="7"/>
+      <c r="AU29" s="7"/>
+      <c r="BA29" s="7"/>
+      <c r="BG29" s="7"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:82">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="3" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AO30" s="7"/>
+      <c r="AU30" s="7"/>
+      <c r="BA30" s="7"/>
+      <c r="BG30" s="7"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:82">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="3" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AO31" s="7"/>
+      <c r="AU31" s="7"/>
+      <c r="BA31" s="7"/>
+      <c r="BG31" s="7"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:82">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="3"/>
-      <c r="J32" s="7"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="3"/>
+      <c r="AI32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AU32" s="7"/>
+      <c r="BA32" s="7"/>
+      <c r="BG32" s="7"/>
     </row>
-    <row r="33" spans="3:14">
+    <row r="33" spans="3:59">
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="2" t="s">
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="J33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AU33" s="7"/>
+      <c r="BA33" s="7"/>
+      <c r="BG33" s="7"/>
     </row>
-    <row r="34" spans="3:14">
+    <row r="34" spans="3:59">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="3" t="s">
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AU34" s="7"/>
+      <c r="BA34" s="7"/>
+      <c r="BG34" s="7"/>
     </row>
-    <row r="35" spans="3:14">
+    <row r="35" spans="3:59">
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="3" t="s">
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AU35" s="7"/>
+      <c r="BA35" s="7"/>
+      <c r="BG35" s="7"/>
     </row>
-    <row r="36" spans="3:14">
+    <row r="36" spans="3:59">
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="3" t="s">
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AU36" s="7"/>
+      <c r="BA36" s="7"/>
+      <c r="BG36" s="7"/>
     </row>
-    <row r="37" spans="3:14">
+    <row r="37" spans="3:59">
       <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="3" t="s">
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AU37" s="7"/>
+      <c r="BA37" s="7"/>
+      <c r="BG37" s="7"/>
     </row>
-    <row r="38" spans="3:14">
+    <row r="38" spans="3:59">
       <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="3"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="3"/>
+      <c r="AU38" s="7"/>
+      <c r="BA38" s="7"/>
+      <c r="BG38" s="7"/>
     </row>
-    <row r="39" spans="3:14">
+    <row r="39" spans="3:59">
       <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="AU39" s="7"/>
+      <c r="BA39" s="7"/>
+      <c r="BG39" s="7"/>
     </row>
-    <row r="40" spans="3:14">
-      <c r="F40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
+    <row r="40" spans="3:59">
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="AU40" s="7"/>
+      <c r="BA40" s="7"/>
+      <c r="BG40" s="7"/>
     </row>
-    <row r="41" spans="3:14">
-      <c r="M41" s="7"/>
+    <row r="41" spans="3:59">
+      <c r="BA41" s="7"/>
     </row>
-    <row r="42" spans="3:14">
-      <c r="M42" s="7"/>
+    <row r="42" spans="3:59">
+      <c r="BA42" s="7"/>
     </row>
-    <row r="43" spans="3:14">
-      <c r="M43" s="7"/>
+    <row r="43" spans="3:59">
+      <c r="BA43" s="7"/>
     </row>
-    <row r="44" spans="3:14">
-      <c r="M44" s="7"/>
+    <row r="44" spans="3:59">
+      <c r="BA44" s="7"/>
     </row>
-    <row r="45" spans="3:14">
-      <c r="M45" s="7"/>
+    <row r="45" spans="3:59">
+      <c r="BA45" s="7"/>
     </row>
-    <row r="46" spans="3:14">
-      <c r="M46" s="7"/>
+    <row r="46" spans="3:59">
+      <c r="BA46" s="7"/>
     </row>
-    <row r="47" spans="3:14">
-      <c r="M47" s="7"/>
+    <row r="47" spans="3:59">
+      <c r="BA47" s="7"/>
     </row>
-    <row r="48" spans="3:14">
-      <c r="M48" s="7"/>
+    <row r="48" spans="3:59">
+      <c r="BA48" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -12007,31 +15346,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:16" ht="44.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
